--- a/CasosDePrueba(4).xlsx
+++ b/CasosDePrueba(4).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="109">
   <si>
     <r>
       <rPr>
@@ -499,32 +499,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>t+1</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>F=0</t>
   </si>
   <si>
@@ -699,7 +673,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1100,11 +1073,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="857250" cy="571500"/>
+    <xdr:ext cx="866775" cy="581025"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -1112,8 +1085,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4922138" y="3503775"/>
-          <a:ext cx="847725" cy="552450"/>
+          <a:off x="4917375" y="3494250"/>
+          <a:ext cx="857250" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="stripedRightArrow">
           <a:avLst>
@@ -1147,6 +1120,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1161,14 +1136,77 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1266825" cy="552450"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4717350" y="3508538"/>
+          <a:ext cx="1257300" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd fmla="val 50000" name="adj1"/>
+            <a:gd fmla="val 50000" name="adj2"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln cap="flat" cmpd="sng" w="12700">
+          <a:solidFill>
+            <a:srgbClr val="31538F"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd len="sm" w="sm" type="none"/>
+          <a:tailEnd len="sm" w="sm" type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1257300" cy="542925"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvPr id="5" name="Shape 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1208,6 +1246,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1221,21 +1261,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1247775" cy="533400"/>
+    <xdr:ext cx="1362075" cy="504825"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvPr id="6" name="Shape 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4726875" y="3522825"/>
-          <a:ext cx="1238250" cy="514350"/>
+          <a:off x="4669725" y="3532350"/>
+          <a:ext cx="1352550" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="stripedRightArrow">
           <a:avLst>
@@ -1269,67 +1309,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1352550" cy="495300"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Shape 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4674488" y="3541875"/>
-          <a:ext cx="1343025" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="stripedRightArrow">
-          <a:avLst>
-            <a:gd fmla="val 50000" name="adj1"/>
-            <a:gd fmla="val 50000" name="adj2"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="12700">
-          <a:solidFill>
-            <a:srgbClr val="31538F"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1351,7 +1332,7 @@
     <xdr:ext cx="333375" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1379,7 +1360,7 @@
     <xdr:ext cx="885825" cy="219075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1407,7 +1388,7 @@
     <xdr:ext cx="1181100" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1435,7 +1416,7 @@
     <xdr:ext cx="285750" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1463,7 +1444,7 @@
     <xdr:ext cx="285750" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1701,8 +1682,6 @@
     <col customWidth="1" min="21" max="21" width="14.57"/>
     <col customWidth="1" min="22" max="22" width="4.57"/>
     <col customWidth="1" min="23" max="23" width="8.0"/>
-    <col customWidth="1" min="24" max="24" width="5.86"/>
-    <col customWidth="1" min="25" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -3542,720 +3521,720 @@
     <row r="284" ht="14.25" customHeight="1"/>
     <row r="285" ht="14.25" customHeight="1"/>
     <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -4276,7 +4255,7 @@
   <cols>
     <col customWidth="1" min="1" max="3" width="10.71"/>
     <col customWidth="1" min="4" max="4" width="19.0"/>
-    <col customWidth="1" min="5" max="26" width="10.71"/>
+    <col customWidth="1" min="5" max="13" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -4296,9 +4275,7 @@
       <c r="J2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -4334,12 +4311,8 @@
       <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -4375,13 +4348,8 @@
       <c r="K4" s="2">
         <v>0.0</v>
       </c>
-      <c r="L4" s="2">
-        <f t="shared" ref="L4:L35" si="1">1-M4</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
@@ -4417,13 +4385,8 @@
       <c r="K5" s="2">
         <v>0.0</v>
       </c>
-      <c r="L5" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -4459,13 +4422,8 @@
       <c r="K6" s="2">
         <v>1.0</v>
       </c>
-      <c r="L6" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
@@ -4501,13 +4459,8 @@
       <c r="K7" s="2">
         <v>1.0</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -4543,13 +4496,8 @@
       <c r="K8" s="2">
         <v>0.0</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -4585,13 +4533,8 @@
       <c r="K9" s="2">
         <v>0.0</v>
       </c>
-      <c r="L9" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -4627,13 +4570,8 @@
       <c r="K10" s="2">
         <v>1.0</v>
       </c>
-      <c r="L10" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -4669,13 +4607,8 @@
       <c r="K11" s="2">
         <v>1.0</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="5" t="s">
@@ -4711,13 +4644,8 @@
       <c r="K12" s="2">
         <v>0.0</v>
       </c>
-      <c r="L12" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -4753,13 +4681,8 @@
       <c r="K13" s="2">
         <v>0.0</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -4795,13 +4718,8 @@
       <c r="K14" s="2">
         <v>1.0</v>
       </c>
-      <c r="L14" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -4837,13 +4755,8 @@
       <c r="K15" s="2">
         <v>1.0</v>
       </c>
-      <c r="L15" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -4879,13 +4792,8 @@
       <c r="K16" s="2">
         <v>0.0</v>
       </c>
-      <c r="L16" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
@@ -4921,13 +4829,8 @@
       <c r="K17" s="2">
         <v>0.0</v>
       </c>
-      <c r="L17" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
@@ -4963,13 +4866,8 @@
       <c r="K18" s="2">
         <v>1.0</v>
       </c>
-      <c r="L18" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="5" t="s">
@@ -5005,13 +4903,8 @@
       <c r="K19" s="2">
         <v>1.0</v>
       </c>
-      <c r="L19" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="5" t="s">
@@ -5047,13 +4940,8 @@
       <c r="K20" s="2">
         <v>0.0</v>
       </c>
-      <c r="L20" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="5" t="s">
@@ -5089,13 +4977,8 @@
       <c r="K21" s="2">
         <v>0.0</v>
       </c>
-      <c r="L21" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="5" t="s">
@@ -5131,13 +5014,8 @@
       <c r="K22" s="2">
         <v>1.0</v>
       </c>
-      <c r="L22" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="5" t="s">
@@ -5173,13 +5051,8 @@
       <c r="K23" s="2">
         <v>1.0</v>
       </c>
-      <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="5" t="s">
@@ -5215,13 +5088,8 @@
       <c r="K24" s="2">
         <v>0.0</v>
       </c>
-      <c r="L24" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="5" t="s">
@@ -5257,13 +5125,8 @@
       <c r="K25" s="2">
         <v>0.0</v>
       </c>
-      <c r="L25" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="5" t="s">
@@ -5299,13 +5162,8 @@
       <c r="K26" s="2">
         <v>1.0</v>
       </c>
-      <c r="L26" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="5" t="s">
@@ -5341,13 +5199,8 @@
       <c r="K27" s="2">
         <v>1.0</v>
       </c>
-      <c r="L27" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="5" t="s">
@@ -5383,13 +5236,8 @@
       <c r="K28" s="2">
         <v>0.0</v>
       </c>
-      <c r="L28" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="5" t="s">
@@ -5425,13 +5273,8 @@
       <c r="K29" s="2">
         <v>0.0</v>
       </c>
-      <c r="L29" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="5" t="s">
@@ -5467,13 +5310,8 @@
       <c r="K30" s="2">
         <v>1.0</v>
       </c>
-      <c r="L30" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="5" t="s">
@@ -5509,13 +5347,8 @@
       <c r="K31" s="2">
         <v>1.0</v>
       </c>
-      <c r="L31" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="5" t="s">
@@ -5551,13 +5384,8 @@
       <c r="K32" s="2">
         <v>0.0</v>
       </c>
-      <c r="L32" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="5" t="s">
@@ -5593,13 +5421,8 @@
       <c r="K33" s="2">
         <v>0.0</v>
       </c>
-      <c r="L33" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="5" t="s">
@@ -5635,13 +5458,8 @@
       <c r="K34" s="2">
         <v>1.0</v>
       </c>
-      <c r="L34" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="5" t="s">
@@ -5677,13 +5495,8 @@
       <c r="K35" s="2">
         <v>1.0</v>
       </c>
-      <c r="L35" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
     </row>
     <row r="36" ht="14.25" customHeight="1"/>
     <row r="37" ht="14.25" customHeight="1"/>
@@ -5764,7 +5577,7 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1"/>
@@ -5778,7 +5591,7 @@
         <v>47</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
@@ -5786,7 +5599,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
@@ -5818,7 +5631,7 @@
         <v>57</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
@@ -5842,7 +5655,7 @@
         <v>63</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
@@ -5850,7 +5663,7 @@
         <v>65</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
@@ -5865,7 +5678,7 @@
     <row r="91" ht="14.25" customHeight="1"/>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
@@ -5883,7 +5696,7 @@
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1"/>
@@ -6026,7 +5839,7 @@
     <row r="111" ht="14.25" customHeight="1"/>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
@@ -6364,681 +6177,681 @@
     <row r="323" ht="14.25" customHeight="1"/>
     <row r="324" ht="14.25" customHeight="1"/>
     <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -7062,57 +6875,57 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
       <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="M4" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M4" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="T4" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U4" s="20">
         <v>0.0</v>
@@ -7139,7 +6952,7 @@
         <v>1.0</v>
       </c>
       <c r="AH4" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI4" s="20">
         <v>0.0</v>
@@ -7168,7 +6981,7 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="F5" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="20">
         <v>0.0</v>
@@ -7195,7 +7008,7 @@
         <v>1.0</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U5" s="20">
         <v>0.0</v>
@@ -7222,7 +7035,7 @@
         <v>1.0</v>
       </c>
       <c r="AH5" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI5" s="20">
         <v>0.0</v>
@@ -7254,74 +7067,74 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="D6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="L6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="N6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="U6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="V6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="X6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AB6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AG6" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="L6" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M6" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="N6" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="S6" s="24" t="s">
+      <c r="AH6" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="T6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="U6" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="V6" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="W6" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="X6" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Y6" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="Z6" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="AA6" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="AB6" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="AG6" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH6" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="AI6" s="20">
         <v>0.0</v>
       </c>
@@ -7347,16 +7160,16 @@
         <v>1.0</v>
       </c>
       <c r="AT6" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AV6" s="26"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="D7" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="29"/>
@@ -7368,10 +7181,10 @@
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="R7" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF7" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT7" s="30"/>
       <c r="AV7" s="26"/>
@@ -7886,31 +7699,31 @@
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1"/>
     <row r="23" ht="14.25" customHeight="1">
       <c r="E23" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" s="20">
         <v>0.0</v>
@@ -7921,13 +7734,13 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="C25" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -7981,7 +7794,7 @@
         <v>1.0</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P28" s="20">
         <v>0.0</v>
@@ -8292,771 +8105,771 @@
     <row r="233" ht="14.25" customHeight="1"/>
     <row r="234" ht="14.25" customHeight="1"/>
     <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E23:E24"/>
